--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{0129B809-5A3B-48E5-AC84-8C2BCB68F3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC9271E5-F53B-4DF3-ADB9-8FB4C9A0907C}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="8_{0129B809-5A3B-48E5-AC84-8C2BCB68F3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7B18009-5E39-4715-9D9F-271B75025003}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D33220B9-F8AC-4806-9C5E-F53489A6E462}"/>
   </bookViews>
@@ -35,111 +35,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT R&amp;C analysist. The manager review is executed to make sure all servers and all days within the month are accounted for. Additionally, the manager haphazardly selected 5 days within the month and re-executes the review to ensure the procedures were accurately performed. If any discrepancies are identified, the manager performs further investigation.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Review monthly monitoring tracker and ensure all days were monitored by analyst.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Access the monthly monitor tracker at:        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i. \\MainFolder\Daily_Change_Monitoring        </t>
+  </si>
+  <si>
+    <t>b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. All days tracked will contain an "X" for that day or the ServiceNow ticket associated with the change for that day</t>
+  </si>
+  <si>
+    <t>Step 1 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from population of monthly days found on the days track tab) and ensure an email was</t>
+  </si>
+  <si>
+    <t>received for each server on the days selected.</t>
+  </si>
+  <si>
+    <t>a. All emails are archived by date at: \\MainFolder\Daily_Change_Monitoring\</t>
+  </si>
+  <si>
+    <t>Selection 1 (date)</t>
+  </si>
+  <si>
+    <t>Emails Received</t>
+  </si>
+  <si>
+    <t>Selection 2 (date)</t>
+  </si>
+  <si>
+    <t>Step 2 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
+  </si>
+  <si>
+    <t>Selection 1 (Date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total Changes</t>
+  </si>
+  <si>
+    <t>magic_qq_appl</t>
+  </si>
+  <si>
+    <t>testps01</t>
+  </si>
+  <si>
+    <t>testps0324</t>
+  </si>
+  <si>
+    <t>testps9023</t>
+  </si>
+  <si>
+    <t>Selection 2 (Date)</t>
+  </si>
+  <si>
+    <t>magic435</t>
+  </si>
+  <si>
+    <t>magic_qq_23455</t>
+  </si>
+  <si>
+    <t>test_2348q</t>
+  </si>
+  <si>
+    <t>test234234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow ticket identified). For each change, ensure the ServiceNow ticker referenced </t>
+  </si>
+  <si>
+    <t>appropriately maps to the identified change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in </t>
+  </si>
+  <si>
+    <t>the Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder</t>
+  </si>
+  <si>
+    <t>\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>Step 4 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
+  </si>
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-22-2020\*</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic435.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73</t>
+  </si>
   <si>
     <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
   </si>
   <si>
+    <t>CHANGES - SOX Audit Report for test234234.txt_07.01.73</t>
+  </si>
+  <si>
     <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for test_2348q.txt_07.01.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT R&amp;C analysist. The manager review is executed to make sure all servers and all days within the month are accounted for. Additionally, the manager haphazardly selected 5 days within the month and re-executes the review to ensure the procedures were accurately performed. If any discrepancies are identified, the manager performs further investigation.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Review monthly monitoring tracker and ensure all days were monitored by analyst.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Access the monthly monitor tracker at:        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">i. \\MainFolder\Daily_Change_Monitoring        </t>
-  </si>
-  <si>
-    <t>b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. All days tracked will contain an "X" for that day or the ServiceNow ticket associated with the change for that day</t>
-  </si>
-  <si>
-    <t>Step 1 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
-  </si>
-  <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from population of monthly days found on the days track tab) and ensure an email was</t>
-  </si>
-  <si>
-    <t>received for each server on the days selected.</t>
-  </si>
-  <si>
-    <t>a. All emails are archived by date at: \\MainFolder\Daily_Change_Monitoring\</t>
-  </si>
-  <si>
-    <t>Selection 1 (date)</t>
-  </si>
-  <si>
-    <t>Emails Received</t>
-  </si>
-  <si>
-    <t>Selection 2 (date)</t>
-  </si>
-  <si>
-    <t>Step 2 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
-  </si>
-  <si>
-    <t>Selection 1 (Date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Total Changes</t>
-  </si>
-  <si>
-    <t>magic_qq_appl</t>
-  </si>
-  <si>
-    <t>testps01</t>
-  </si>
-  <si>
-    <t>testps0324</t>
-  </si>
-  <si>
-    <t>testps9023</t>
-  </si>
-  <si>
-    <t>Selection 2 (Date)</t>
-  </si>
-  <si>
-    <t>magic_kq_023</t>
-  </si>
-  <si>
-    <t>magic_kl02</t>
   </si>
 </sst>
 </file>
@@ -175,9 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,174 +527,220 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11F7830-7076-47CD-ADA6-DB00BD6F2D35}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D28" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
-        <v>43839</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43852</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="H32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1">
-        <v>43839</v>
-      </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H29" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H30" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H31" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43843</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -674,49 +754,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="8_{0129B809-5A3B-48E5-AC84-8C2BCB68F3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7B18009-5E39-4715-9D9F-271B75025003}"/>
+  <xr:revisionPtr revIDLastSave="546" documentId="8_{0129B809-5A3B-48E5-AC84-8C2BCB68F3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB4001C0-DAB1-4257-A578-D70593D76DDD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D33220B9-F8AC-4806-9C5E-F53489A6E462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
   </si>
@@ -94,31 +94,28 @@
     <t>Total Changes</t>
   </si>
   <si>
-    <t>magic_qq_appl</t>
-  </si>
-  <si>
-    <t>testps01</t>
-  </si>
-  <si>
-    <t>testps0324</t>
-  </si>
-  <si>
-    <t>testps9023</t>
+    <t>magic435</t>
+  </si>
+  <si>
+    <t>magic_qq_23455</t>
+  </si>
+  <si>
+    <t>test_2348q</t>
+  </si>
+  <si>
+    <t>test234234</t>
   </si>
   <si>
     <t>Selection 2 (Date)</t>
   </si>
   <si>
-    <t>magic435</t>
-  </si>
-  <si>
-    <t>magic_qq_23455</t>
-  </si>
-  <si>
-    <t>test_2348q</t>
-  </si>
-  <si>
-    <t>test234234</t>
+    <t>magic_iq23</t>
+  </si>
+  <si>
+    <t>testqcl12</t>
+  </si>
+  <si>
+    <t>oiuer3298</t>
   </si>
   <si>
     <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
@@ -145,31 +142,28 @@
     <t>Step 4 Review Sign off ___________</t>
   </si>
   <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
-  </si>
-  <si>
     <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-22-2020\*</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-24-2020\*</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic435.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for magic_iq23.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for oiuer3298.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for test234234.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for testqcl12.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for test_2348q.txt_07.01.73</t>
@@ -527,10 +521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11F7830-7076-47CD-ADA6-DB00BD6F2D35}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31 G31 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>43839</v>
+        <v>43852</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -614,13 +608,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>43852</v>
+        <v>43854</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -641,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="2">
-        <v>43839</v>
+        <v>43852</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>18</v>
@@ -676,13 +670,13 @@
         <v>17</v>
       </c>
       <c r="D32" s="2">
-        <v>43852</v>
+        <v>43854</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>24</v>
@@ -699,7 +693,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="1" t="s">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -713,8 +707,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -733,14 +727,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -761,42 +750,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\UiPath_2\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74FAF76-9167-41C3-B2D9-CAB0D51E3931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571699E6-CBD4-48AA-B3B0-0F0D3C4A89AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{43EEC704-63A9-4E56-A65E-A0FE8732B2D7}"/>
   </bookViews>
@@ -464,7 +464,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DA998F97-877B-42A7-A408-49599EBF8426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62AC5F80-41AA-4E12-BDB2-2C5965087D43}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{A0587E9A-777E-457E-90C1-6DA79CC7D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46FCB1FA-2CF5-4D1C-AC23-87394EC42CD0}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3996" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{3D53C740-CC8C-474C-91B7-C4C9988D7D64}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
+  </si>
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-24-2020\*</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_iq23.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for oiuer3298.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testqcl12.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
+  </si>
   <si>
     <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
   </si>
@@ -61,30 +88,6 @@
     <t>Step 1 Review Sign off ___________</t>
   </si>
   <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
-  </si>
-  <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
-  </si>
-  <si>
     <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from population of monthly days found on the days track tab) and ensure an email was</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
   </si>
   <si>
+    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
+  </si>
+  <si>
     <t>Selection 1 (Date)</t>
   </si>
   <si>
@@ -116,6 +122,111 @@
   </si>
   <si>
     <t>Total Changes</t>
+  </si>
+  <si>
+    <t>magic_qq_appl</t>
+  </si>
+  <si>
+    <t>Step 3 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>Selection 2 (Date)</t>
+  </si>
+  <si>
+    <t>magic_kq_023</t>
+  </si>
+  <si>
+    <t>magic_kl02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow ticket identified). For each change, ensure the ServiceNow ticker referenced </t>
+  </si>
+  <si>
+    <t>appropriately maps to the identified change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in </t>
+  </si>
+  <si>
+    <t>the Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder</t>
+  </si>
+  <si>
+    <t>\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>1/9/2020</t>
+  </si>
+  <si>
+    <t>CHR0000192847</t>
+  </si>
+  <si>
+    <t>Not Appropiately Mapped</t>
+  </si>
+  <si>
+    <t>1/13/2020</t>
+  </si>
+  <si>
+    <t>CHR0000230943</t>
+  </si>
+  <si>
+    <t>Appropiately Mapped</t>
+  </si>
+  <si>
+    <t>Step 4 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
+  </si>
+  <si>
+    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
+  </si>
+  <si>
+    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
+  </si>
+  <si>
+    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
+  </si>
+  <si>
+    <t>Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
+  </si>
+  <si>
+    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>With Emails</t>
+  </si>
+  <si>
+    <t>Exclusions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Changes _____</t>
+  </si>
+  <si>
+    <t>Step 5 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>CHR0000123095</t>
+  </si>
+  <si>
+    <t>1/24/2020</t>
+  </si>
+  <si>
+    <t>CHR0000382957</t>
   </si>
 </sst>
 </file>
@@ -151,9 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,50 +579,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8780A87C-4325-4263-BA9A-07CD9B254F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3CD2DD-DAF0-4450-9CC5-E23420EAF873}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -519,123 +632,926 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7A23EC-3977-4546-9B17-CDBF26E4AECD}">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7945A9-ECBD-4236-808C-3C0F32CBB171}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43843</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F73" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C138" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="1">
+        <v>9</v>
+      </c>
+      <c r="D139" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1">
-        <v>43839</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C158" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+      <c r="E158" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H158" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43839</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
+      <c r="D172" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C185" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="1">
+        <v>9</v>
+      </c>
+      <c r="D186" s="1">
+        <v>7</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -644,12 +1560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4203FF7E-6C13-404F-82F3-AF8284931D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAD8638-2B1B-4887-8030-54A672294A1D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{A0587E9A-777E-457E-90C1-6DA79CC7D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46FCB1FA-2CF5-4D1C-AC23-87394EC42CD0}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{A0587E9A-777E-457E-90C1-6DA79CC7D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18B93757-3F78-4F9A-A592-C5A0791940E7}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="64">
   <si>
     <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
   </si>
@@ -61,7 +61,7 @@
     <t>CHANGES - SOX Audit Report for testqcl12.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for test_2348q.txt_07.01.73</t>
   </si>
   <si>
     <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
@@ -634,7 +634,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7945A9-ECBD-4236-808C-3C0F32CBB171}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1528,7 @@
       <c r="E185" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1545,13 +1545,345 @@
       <c r="E186" s="1">
         <v>0</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H206" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H224" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H243" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E244" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H244" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{A0587E9A-777E-457E-90C1-6DA79CC7D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18B93757-3F78-4F9A-A592-C5A0791940E7}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{A0587E9A-777E-457E-90C1-6DA79CC7D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6890D977-F2B7-4528-B4DA-97DDB469EFD2}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,30 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
   </si>
   <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-24-2020\*</t>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-14-2020\*</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for magic_iq23.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for oiuer3298.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testqcl12.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for test234234.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for test_2348q.txt_07.01.73</t>
@@ -133,10 +136,13 @@
     <t>Selection 2 (Date)</t>
   </si>
   <si>
-    <t>magic_kq_023</t>
-  </si>
-  <si>
-    <t>magic_kl02</t>
+    <t>magic9023</t>
+  </si>
+  <si>
+    <t>magic9843</t>
+  </si>
+  <si>
+    <t>testps9023</t>
   </si>
   <si>
     <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
@@ -163,70 +169,67 @@
     <t>1/9/2020</t>
   </si>
   <si>
-    <t>CHR0000192847</t>
+    <t>CHR0000928476</t>
   </si>
   <si>
     <t>Not Appropiately Mapped</t>
   </si>
   <si>
+    <t>1/14/2020</t>
+  </si>
+  <si>
+    <t>CHR0000291924</t>
+  </si>
+  <si>
+    <t>Appropiately Mapped</t>
+  </si>
+  <si>
+    <t>Step 4 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
+  </si>
+  <si>
+    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
+  </si>
+  <si>
+    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
+  </si>
+  <si>
+    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
+  </si>
+  <si>
+    <t>Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
+  </si>
+  <si>
+    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>With Emails</t>
+  </si>
+  <si>
+    <t>Exclusions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Changes _____</t>
+  </si>
+  <si>
+    <t>Step 5 Review Sign off ___________</t>
+  </si>
+  <si>
     <t>1/13/2020</t>
   </si>
   <si>
     <t>CHR0000230943</t>
-  </si>
-  <si>
-    <t>Appropiately Mapped</t>
-  </si>
-  <si>
-    <t>Step 4 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
-  </si>
-  <si>
-    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
-  </si>
-  <si>
-    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
-  </si>
-  <si>
-    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
-  </si>
-  <si>
-    <t>Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
-  </si>
-  <si>
-    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>With Emails</t>
-  </si>
-  <si>
-    <t>Exclusions</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Changes _____</t>
-  </si>
-  <si>
-    <t>Step 5 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>CHR0000123095</t>
-  </si>
-  <si>
-    <t>1/24/2020</t>
-  </si>
-  <si>
-    <t>CHR0000382957</t>
   </si>
 </sst>
 </file>
@@ -625,6 +628,9 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -634,9 +640,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7945A9-ECBD-4236-808C-3C0F32CBB171}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1 A1 A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -647,68 +655,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
         <v>43839</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
@@ -716,283 +724,283 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>43839</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H43" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H44" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H46" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
@@ -1009,881 +1017,393 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92" s="2">
-        <v>43843</v>
+        <v>43839</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H92" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="2">
-        <v>43854</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="D107" s="1">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C111" s="1" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="2">
-        <v>43839</v>
-      </c>
-      <c r="F111" s="1" t="s">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C126" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H111" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C112" s="1" t="s">
+      <c r="E126" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H112" s="1">
+      <c r="H126" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C127" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="1" t="s">
+      <c r="E127" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>48</v>
+      <c r="H127" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C138" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C139" s="1">
-        <v>9</v>
-      </c>
-      <c r="D139" s="1">
-        <v>7</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0</v>
-      </c>
-      <c r="F139" s="1">
-        <v>16</v>
+      <c r="B139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="1">
+        <v>9</v>
+      </c>
+      <c r="D154" s="1">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154">
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C158" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E158" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H158" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E159" s="2">
-        <v>43854</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D172" s="1" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C185" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C186" s="1">
-        <v>9</v>
-      </c>
-      <c r="D186" s="1">
-        <v>7</v>
-      </c>
-      <c r="E186" s="1">
-        <v>0</v>
-      </c>
-      <c r="F186" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C205" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205" s="2">
-        <v>43839</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H205" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C206" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E206" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H206" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C224" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E224" s="2">
-        <v>43852</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H224" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C225" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E225" s="2">
-        <v>43854</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H225" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C243" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E243" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H243" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E244" s="2">
-        <v>43854</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H244" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B256" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1416,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1 A1 A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{A0587E9A-777E-457E-90C1-6DA79CC7D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6890D977-F2B7-4528-B4DA-97DDB469EFD2}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="6_{D716829F-9399-4BAC-9D9C-96A20A229591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C43638A8-94D8-4BB6-A31F-6FD22699B7A9}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AF6F62A5-CE75-40CD-A81D-6AC7D1423296}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,24 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
   <si>
     <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
   </si>
   <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-14-2020\*</t>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-22-2020\*</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for magic435.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
@@ -115,9 +115,6 @@
     <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
   </si>
   <si>
-    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
-  </si>
-  <si>
     <t>Selection 1 (Date)</t>
   </si>
   <si>
@@ -127,22 +124,49 @@
     <t>Total Changes</t>
   </si>
   <si>
-    <t>magic_qq_appl</t>
+    <t>magic9023</t>
+  </si>
+  <si>
+    <t>Selection 2 (Date)</t>
   </si>
   <si>
     <t>Step 3 Review Sign off ___________</t>
   </si>
   <si>
-    <t>Selection 2 (Date)</t>
-  </si>
-  <si>
-    <t>magic9023</t>
+    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
+  </si>
+  <si>
+    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
   </si>
   <si>
     <t>magic9843</t>
   </si>
   <si>
-    <t>testps9023</t>
+    <t>Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
+  </si>
+  <si>
+    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>With Emails</t>
+  </si>
+  <si>
+    <t>Exclusions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Changes _____</t>
+  </si>
+  <si>
+    <t>Step 5 Review Sign off ___________</t>
   </si>
   <si>
     <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
@@ -166,10 +190,10 @@
     <t>\\Remediation_or_Justification Evidence</t>
   </si>
   <si>
-    <t>1/9/2020</t>
-  </si>
-  <si>
-    <t>CHR0000928476</t>
+    <t>1/24/2020</t>
+  </si>
+  <si>
+    <t>CHR0000381057</t>
   </si>
   <si>
     <t>Not Appropiately Mapped</t>
@@ -193,43 +217,16 @@
     <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
   </si>
   <si>
-    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
-  </si>
-  <si>
-    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
-  </si>
-  <si>
-    <t>Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
-  </si>
-  <si>
-    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>With Emails</t>
-  </si>
-  <si>
-    <t>Exclusions</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Changes _____</t>
-  </si>
-  <si>
-    <t>Step 5 Review Sign off ___________</t>
-  </si>
-  <si>
     <t>1/13/2020</t>
   </si>
   <si>
     <t>CHR0000230943</t>
+  </si>
+  <si>
+    <t>1/22/2020</t>
+  </si>
+  <si>
+    <t>CHR0000391114</t>
   </si>
 </sst>
 </file>
@@ -640,7 +637,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7945A9-ECBD-4236-808C-3C0F32CBB171}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1 A1 A1:XFD1048576"/>
@@ -713,13 +710,13 @@
         <v>21</v>
       </c>
       <c r="E16" s="2">
-        <v>43839</v>
+        <v>43844</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="E17" s="2">
-        <v>43844</v>
+        <v>43852</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -746,445 +743,458 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2">
-        <v>43839</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43852</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2">
         <v>43844</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="1" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="1">
-        <v>9</v>
-      </c>
-      <c r="D73" s="1">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="1">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="1" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="2">
-        <v>43839</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="1" t="s">
+      <c r="E107" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="2">
-        <v>43844</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="E108" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C107" s="1">
-        <v>9</v>
-      </c>
-      <c r="D107" s="1">
-        <v>7</v>
-      </c>
-      <c r="E107" s="1">
-        <v>0</v>
-      </c>
-      <c r="F107" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,157 +1263,614 @@
         <v>23</v>
       </c>
       <c r="E127" s="2">
-        <v>43844</v>
+        <v>43852</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H127" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C145" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E145" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C164" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E183" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H202" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C221" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E221" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C222" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C240" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E240" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H240" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C241" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E241" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="F254" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C153" s="1" t="s">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F153" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="1">
-        <v>9</v>
-      </c>
-      <c r="D154" s="1">
-        <v>7</v>
-      </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{0C0CF030-06EF-41D8-9F63-A6B4A77A3BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{152CBA69-4613-4A9D-A4D5-FA4653DBA40B}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{0C0CF030-06EF-41D8-9F63-A6B4A77A3BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DE9AFCA-C191-43D3-9D37-368BF1C8FCFB}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="2256" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{CA2D845C-3810-4B30-B2D5-44F061E73CA6}"/>
   </bookViews>
@@ -35,7 +35,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT R&amp;C analysist. The manager review is executed to make sure all servers and all days within the month are accounted for. Additionally, the manager haphazardly selected 5 days within the month and re-executes the review to ensure the procedures were accurately performed. If any discrepancies are identified, the manager performs further investigation.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Review monthly monitoring tracker and ensure all days were monitored by analyst.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Access the monthly monitor tracker at:        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i. \\MainFolder\Daily_Change_Monitoring        </t>
+  </si>
+  <si>
+    <t>b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. All days tracked will contain an "X" for that day or the ServiceNow ticket associated with the change for that day</t>
+  </si>
+  <si>
+    <t>Step 1 Review Sign off ___________</t>
+  </si>
   <si>
     <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
   </si>
@@ -46,45 +70,21 @@
     <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
   </si>
   <si>
+    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
+  </si>
+  <si>
     <t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
-  </si>
-  <si>
     <t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT R&amp;C analysist. The manager review is executed to make sure all servers and all days within the month are accounted for. Additionally, the manager haphazardly selected 5 days within the month and re-executes the review to ensure the procedures were accurately performed. If any discrepancies are identified, the manager performs further investigation.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Review monthly monitoring tracker and ensure all days were monitored by analyst.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Access the monthly monitor tracker at:        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">i. \\MainFolder\Daily_Change_Monitoring        </t>
-  </si>
-  <si>
-    <t>b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. All days tracked will contain an "X" for that day or the ServiceNow ticket associated with the change for that day</t>
-  </si>
-  <si>
-    <t>Step 1 Review Sign off ___________</t>
-  </si>
-  <si>
     <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from population of monthly days found on the days track tab) and ensure an email was</t>
   </si>
   <si>
@@ -109,109 +109,7 @@
     <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
   </si>
   <si>
-    <t>Selection 1 (Date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Total Changes</t>
-  </si>
-  <si>
-    <t>magic_qq_appl</t>
-  </si>
-  <si>
-    <t>Step 3 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>testps01</t>
-  </si>
-  <si>
-    <t>testps0324</t>
-  </si>
-  <si>
-    <t>testps9023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServiceNow ticket identified). For each change, ensure the ServiceNow ticker referenced </t>
-  </si>
-  <si>
-    <t>appropriately maps to the identified change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in </t>
-  </si>
-  <si>
-    <t>the Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder</t>
-  </si>
-  <si>
-    <t>\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>1/9/2020</t>
-  </si>
-  <si>
-    <t>CHR0000928476</t>
-  </si>
-  <si>
-    <t>Not Appropiately Mapped</t>
-  </si>
-  <si>
-    <t>1/14/2020</t>
-  </si>
-  <si>
-    <t>CHR0000291924</t>
-  </si>
-  <si>
-    <t>Appropiately Mapped</t>
-  </si>
-  <si>
-    <t>Step 4 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
-  </si>
-  <si>
-    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
-  </si>
-  <si>
-    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
-  </si>
-  <si>
-    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
-  </si>
-  <si>
-    <t>Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
-  </si>
-  <si>
-    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>With Emails</t>
-  </si>
-  <si>
-    <t>Exclusions</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Changes _____</t>
-  </si>
-  <si>
-    <t>Step 5 Review Sign off ___________</t>
+    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
   </si>
 </sst>
 </file>
@@ -247,10 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,47 +462,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D1C08-B453-422E-B237-AA30DF456E1D}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1 B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -615,362 +511,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E691CD0-91EE-49BC-91B2-D2318A4F3BFE}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
+      <c r="A8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+      <c r="A11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>43839</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>43844</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43839</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73">
-        <v>9</v>
-      </c>
-      <c r="D73">
-        <v>7</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +622,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACD41A-259A-4254-9072-5C055FF5D786}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A9D44-7FF2-4D3C-8F8F-3F33097DDC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CB225-E98F-40AD-9A5C-D07F25EBC202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CA2D845C-3810-4B30-B2D5-44F061E73CA6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{CA2D845C-3810-4B30-B2D5-44F061E73CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+  <si>
+    <t>C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
+  </si>
+  <si>
+    <t>C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-14-2020\*</t>
+  </si>
+  <si>
+    <t>CHANGES - Missing From FT magic_qq_appl.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT R&amp;C analysist. The manager review is executed to make sure all servers and all days within the month are accounted for. Additionally, the manager haphazardly selected 5 days within the month and re-executes the review to ensure the procedures were accurately performed. If any discrepancies are identified, the manager performs further investigation.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Review monthly monitoring tracker and ensure all days were monitored by analyst.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Access the monthly monitor tracker at:        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i. \\MainFolder\Daily_Change_Monitoring        </t>
+  </si>
+  <si>
+    <t>b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. All days tracked will contain an "X" for that day or the ServiceNow ticket associated with the change for that day</t>
+  </si>
+  <si>
+    <t>Step 1 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from population of monthly days found on the days track tab) and ensure an email was</t>
+  </si>
+  <si>
+    <t>received for each server on the days selected.</t>
+  </si>
+  <si>
+    <t>a. All emails are archived by date at: \\MainFolder\Daily_Change_Monitoring\</t>
+  </si>
+  <si>
+    <t>Selection 1 (date)</t>
+  </si>
+  <si>
+    <t>Emails Received</t>
+  </si>
+  <si>
+    <t>Selection 2 (date)</t>
+  </si>
+  <si>
+    <t>Step 2 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>"3. For the days selected in step two, identify all emails which denote a change detected. "</t>
+  </si>
+  <si>
+    <t>"Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
+  </si>
+  <si>
+    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Step 3 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>Selection 2 (Date)</t>
+  </si>
+  <si>
+    <t>Total Changes</t>
+  </si>
+  <si>
+    <t>magic9023</t>
+  </si>
+  <si>
+    <t>magic9843</t>
+  </si>
+  <si>
+    <t>testps9023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow ticket identified). For each change, ensure the ServiceNow ticker referenced </t>
+  </si>
+  <si>
+    <t>appropriately maps to the identified change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in </t>
+  </si>
+  <si>
+    <t>the Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder</t>
+  </si>
+  <si>
+    <t>\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>1/9/2020</t>
+  </si>
+  <si>
+    <t>CHR0000928476</t>
+  </si>
+  <si>
+    <t>Appropiately Mapped</t>
+  </si>
+  <si>
+    <t>1/14/2020</t>
+  </si>
+  <si>
+    <t>CHR0000291924</t>
+  </si>
+  <si>
+    <t>Step 4 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
+  </si>
+  <si>
+    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
+  </si>
+  <si>
+    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
+  </si>
+  <si>
+    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
+  </si>
+  <si>
+    <t>Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
+  </si>
+  <si>
+    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>With Emails</t>
+  </si>
+  <si>
+    <t>Exclusions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Changes _____</t>
+  </si>
+  <si>
+    <t>Step 5 Review Sign off ___________</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,8 +250,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,14 +569,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D1C08-B453-422E-B237-AA30DF456E1D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -401,18 +624,372 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E691CD0-91EE-49BC-91B2-D2318A4F3BFE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8 E8 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.05078125" style="1" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="1">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CB225-E98F-40AD-9A5C-D07F25EBC202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7326D9-F834-48DA-B999-1F1166AAF10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{CA2D845C-3810-4B30-B2D5-44F061E73CA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F9C3C6AA-A5FD-42B7-88A9-76E42932E21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,33 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
-  <si>
-    <t>C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
-  </si>
-  <si>
-    <t>C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-14-2020\*</t>
-  </si>
-  <si>
-    <t>CHANGES - Missing From FT magic_qq_appl.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
+  </si>
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-22-2020\*</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic435.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for test234234.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for test_2348q.txt_07.01.73</t>
   </si>
   <si>
     <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
@@ -121,22 +121,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Selection 2 (Date)</t>
+  </si>
+  <si>
+    <t>Total Changes</t>
+  </si>
+  <si>
+    <t>magic_iq23</t>
+  </si>
+  <si>
     <t>Step 3 Review Sign off ___________</t>
   </si>
   <si>
-    <t>Selection 2 (Date)</t>
-  </si>
-  <si>
-    <t>Total Changes</t>
-  </si>
-  <si>
-    <t>magic9023</t>
-  </si>
-  <si>
-    <t>magic9843</t>
-  </si>
-  <si>
-    <t>testps9023</t>
+    <t>testqcl12</t>
+  </si>
+  <si>
+    <t>oiuer3298</t>
   </si>
   <si>
     <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
@@ -160,10 +160,10 @@
     <t>\\Remediation_or_Justification Evidence</t>
   </si>
   <si>
-    <t>1/9/2020</t>
-  </si>
-  <si>
-    <t>CHR0000928476</t>
+    <t>1/24/2020</t>
+  </si>
+  <si>
+    <t>CHR0000382957</t>
   </si>
   <si>
     <t>Appropiately Mapped</t>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>Step 5 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>1/22/2020</t>
+  </si>
+  <si>
+    <t>CHR0000295932</t>
+  </si>
+  <si>
+    <t>1/13/2020</t>
+  </si>
+  <si>
+    <t>CHR0000230943</t>
   </si>
 </sst>
 </file>
@@ -567,17 +579,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D1C08-B453-422E-B237-AA30DF456E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F8043F-074A-41CD-8780-2E0424FBFA27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,18 +613,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -622,370 +632,669 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E691CD0-91EE-49BC-91B2-D2318A4F3BFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220CCD3-ED7C-4BF8-93F1-87D71B4331C3}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8 E8 A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.05078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>43839</v>
+        <v>43844</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="2">
-        <v>43844</v>
+        <v>43854</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43844</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2</v>
-      </c>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H40" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H41" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H44" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H45" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H46" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H47" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H48" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C74" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C139" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F139" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C140" s="1">
         <v>9</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D140" s="1">
         <v>7</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E140" s="1">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F140">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -995,13 +1304,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACD41A-259A-4254-9072-5C055FF5D786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B35B66-3062-4DE9-A8BC-DFA286DC1CD7}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7326D9-F834-48DA-B999-1F1166AAF10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670A056-2DCC-462D-8AC3-35B7560A642F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F9C3C6AA-A5FD-42B7-88A9-76E42932E21A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{19899FB3-53BC-4557-B934-640A96173E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,33 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
-  <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
-  </si>
-  <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-22-2020\*</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic435.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
+  </si>
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-24-2020\*</t>
+  </si>
+  <si>
+    <t>CHANGES - Missing From FT magic_qq_appl.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_iq23.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for test234234.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for test_2348q.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for oiuer3298.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testqcl12.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
   </si>
   <si>
     <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
@@ -121,6 +124,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Step 3 Review Sign off ___________</t>
+  </si>
+  <si>
     <t>Selection 2 (Date)</t>
   </si>
   <si>
@@ -130,9 +136,6 @@
     <t>magic_iq23</t>
   </si>
   <si>
-    <t>Step 3 Review Sign off ___________</t>
-  </si>
-  <si>
     <t>testqcl12</t>
   </si>
   <si>
@@ -169,10 +172,10 @@
     <t>Appropiately Mapped</t>
   </si>
   <si>
-    <t>1/14/2020</t>
-  </si>
-  <si>
-    <t>CHR0000291924</t>
+    <t>1/9/2020</t>
+  </si>
+  <si>
+    <t>CHR0000928476</t>
   </si>
   <si>
     <t>Step 4 Review Sign off ___________</t>
@@ -215,18 +218,6 @@
   </si>
   <si>
     <t>Step 5 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>1/22/2020</t>
-  </si>
-  <si>
-    <t>CHR0000295932</t>
-  </si>
-  <si>
-    <t>1/13/2020</t>
-  </si>
-  <si>
-    <t>CHR0000230943</t>
   </si>
 </sst>
 </file>
@@ -579,9 +570,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F8043F-074A-41CD-8780-2E0424FBFA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE95A2B3-A9A0-410F-8C00-B5177AC83208}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1 B1"/>
@@ -622,8 +613,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -632,97 +628,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220CCD3-ED7C-4BF8-93F1-87D71B4331C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCCFEDE-87AE-4AF1-9643-6D45EABBD59E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
-        <v>43844</v>
+        <v>43839</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>43854</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -730,572 +725,272 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2">
-        <v>43854</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H45" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>48</v>
+      <c r="F61" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="D74" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="E74" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="F74" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="1">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75">
         <v>9</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D75">
         <v>7</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E75">
         <v>0</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F75">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="2">
-        <v>43844</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E110" s="2">
-        <v>43843</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="2">
-        <v>43852</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>60</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C139" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C140" s="1">
-        <v>9</v>
-      </c>
-      <c r="D140" s="1">
-        <v>7</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B35B66-3062-4DE9-A8BC-DFA286DC1CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5128AB7-D864-46A9-8234-A5CA6C2D652C}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670A056-2DCC-462D-8AC3-35B7560A642F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE20C5DC-385B-4FFB-B383-5DEB17B1B2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{19899FB3-53BC-4557-B934-640A96173E13}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{9FA27177-0E81-433E-920F-E3F3335B4E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -35,63 +35,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
-  <si>
-    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+  <si>
+    <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</t>
   </si>
   <si>
     <t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-24-2020\*</t>
   </si>
   <si>
-    <t>CHANGES - Missing From FT magic_qq_appl.txt_07.01.73</t>
+    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</t>
   </si>
   <si>
     <t>CHANGES - SOX Audit Report for magic_iq23.txt_07.01.73</t>
   </si>
   <si>
+    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for oiuer3298.txt_07.01.73</t>
+  </si>
+  <si>
     <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for oiuer3298.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</t>
-  </si>
-  <si>
     <t>CHANGES - SOX Audit Report for testqcl12.txt_07.01.73</t>
   </si>
   <si>
-    <t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-20  Change Monitoring Monthly Review      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT R&amp;C analysist. The manager review is executed to make sure all servers and all days within the month are accounted for. Additionally, the manager haphazardly selected 5 days within the month and re-executes the review to ensure the procedures were accurately performed. If any discrepancies are identified, the manager performs further investigation.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Review monthly monitoring tracker and ensure all days were monitored by analyst.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Access the monthly monitor tracker at:        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">i. \\MainFolder\Daily_Change_Monitoring        </t>
-  </si>
-  <si>
-    <t>b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. All days tracked will contain an "X" for that day or the ServiceNow ticket associated with the change for that day</t>
+    <t>Apr-28 Change Monitoring Monthly Review</t>
+  </si>
+  <si>
+    <t>On a monthly basis, IT R&amp;C manager will conduct a review of the weekly reviews executed by IT</t>
+  </si>
+  <si>
+    <t>R&amp;C analysist. The manager review is executed to make sure all servers and all days within the</t>
+  </si>
+  <si>
+    <t>month are accounted for. Additionally, the manager haphazardly selected 5 days within the month</t>
+  </si>
+  <si>
+    <t>and re-executes the review to ensure the procedures were accurately performed. If any</t>
+  </si>
+  <si>
+    <t>discrepancies are identified, the manager performs further investigation.</t>
+  </si>
+  <si>
+    <t>Template found here: \\MainFolder\Daily_Change_Monitoring\Monthly Manager Review</t>
+  </si>
+  <si>
+    <t>1. Review monthly monitoring tracker and ensure all days were monitored by analyst.</t>
+  </si>
+  <si>
+    <t>a. Access the monthly monitor tracker at:</t>
+  </si>
+  <si>
+    <t>i. \\MainFolder\Daily_Change_Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. The Daily Change Monitoring tracker will contain a 'days tracked tab'. </t>
+  </si>
+  <si>
+    <t>All days tracked will contain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an "X" for that day or the ServiceNow ticket </t>
+  </si>
+  <si>
+    <t>associated with the change for that day</t>
   </si>
   <si>
     <t>Step 1 Review Sign off ___________</t>
   </si>
   <si>
-    <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from population of monthly days found on the days track tab) and ensure an email was</t>
+    <t>2. From the Findings Tracker tab, haphazardly select a numer of days (from</t>
+  </si>
+  <si>
+    <t>population of monthly days found on the days track tab) and ensure an email was</t>
   </si>
   <si>
     <t>received for each server on the days selected.</t>
@@ -109,115 +127,112 @@
     <t>Selection 2 (date)</t>
   </si>
   <si>
+    <t xml:space="preserve">3. For the days selected in step two, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">identify all emails which denote a change detected. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open each email and ensure the details within </t>
+  </si>
+  <si>
+    <t>(e.g. each change is captured within the monthly tracker (findings tab).</t>
+  </si>
+  <si>
+    <t>Selection 2 (Date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total Changes</t>
+  </si>
+  <si>
+    <t>magic_iq23</t>
+  </si>
+  <si>
+    <t>testqcl12</t>
+  </si>
+  <si>
+    <t>oiuer3298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow ticket identified). For each change, ensure the ServiceNow ticker referenced </t>
+  </si>
+  <si>
+    <t>appropriately maps to the identified change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in </t>
+  </si>
+  <si>
+    <t>the Findings Tracker tab.</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder</t>
+  </si>
+  <si>
+    <t>\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>1/24/2020</t>
+  </si>
+  <si>
+    <t>CHR0000381057</t>
+  </si>
+  <si>
+    <t>Appropiately Mapped</t>
+  </si>
+  <si>
+    <t>1/13/2020</t>
+  </si>
+  <si>
+    <t>CHR0000123095</t>
+  </si>
+  <si>
+    <t>Step 4 Review Sign off ___________</t>
+  </si>
+  <si>
+    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket.</t>
+  </si>
+  <si>
+    <t>For each item, review all supporting conclusion evidence for appropriateness of change occuring</t>
+  </si>
+  <si>
+    <t>without a ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
+  </si>
+  <si>
+    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in</t>
+  </si>
+  <si>
+    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
+  </si>
+  <si>
+    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
+  </si>
+  <si>
+    <t>With Email</t>
+  </si>
+  <si>
+    <t>Exclusions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Step 5 Review Sign off ___________</t>
+  </si>
+  <si>
     <t>Step 2 Review Sign off ___________</t>
   </si>
   <si>
-    <t>"3. For the days selected in step two, identify all emails which denote a change detected. "</t>
-  </si>
-  <si>
-    <t>"Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
-  </si>
-  <si>
-    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Step 3 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>Selection 2 (Date)</t>
-  </si>
-  <si>
-    <t>Total Changes</t>
-  </si>
-  <si>
-    <t>magic_iq23</t>
-  </si>
-  <si>
-    <t>testqcl12</t>
-  </si>
-  <si>
-    <t>oiuer3298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServiceNow ticket identified). For each change, ensure the ServiceNow ticker referenced </t>
-  </si>
-  <si>
-    <t>appropriately maps to the identified change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in </t>
-  </si>
-  <si>
-    <t>the Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder</t>
-  </si>
-  <si>
-    <t>\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>1/24/2020</t>
-  </si>
-  <si>
-    <t>CHR0000382957</t>
-  </si>
-  <si>
-    <t>Appropiately Mapped</t>
-  </si>
-  <si>
-    <t>1/9/2020</t>
-  </si>
-  <si>
-    <t>CHR0000928476</t>
-  </si>
-  <si>
-    <t>Step 4 Review Sign off ___________</t>
-  </si>
-  <si>
-    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
-  </si>
-  <si>
-    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
-  </si>
-  <si>
-    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
-  </si>
-  <si>
-    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the</t>
-  </si>
-  <si>
-    <t>Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at:</t>
-  </si>
-  <si>
-    <t>\\MainFolder\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>With Emails</t>
-  </si>
-  <si>
-    <t>Exclusions</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Changes _____</t>
-  </si>
-  <si>
-    <t>Step 5 Review Sign off ___________</t>
+    <t>Step 3 Review Sign Off ______________________</t>
   </si>
 </sst>
 </file>
@@ -570,12 +585,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE95A2B3-A9A0-410F-8C00-B5177AC83208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470D87DE-BEF8-4D23-A092-1E5708511556}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1 B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,385 +627,484 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCCFEDE-87AE-4AF1-9643-6D45EABBD59E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084356CF-D085-4813-849F-EC0A48737542}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2">
-        <v>43839</v>
-      </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2">
         <v>43854</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H31" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43854</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>36</v>
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75">
-        <v>9</v>
-      </c>
-      <c r="D75">
-        <v>7</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>60</v>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5128AB7-D864-46A9-8234-A5CA6C2D652C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722CE450-CE48-437C-8E59-291EA75725B9}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F9D43-80AE-44AD-9A01-94785F208442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D92BA-3FD2-47C4-A0C5-02A9293DD28A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="1" xr2:uid="{18B94B3C-B929-4EDA-ABB9-637D5671FA39}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="1" xr2:uid="{D39F2BE3-4DC8-4697-9EA5-A60E7019C6F6}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -36,35 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <x:si>
-    <x:t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-09-2020\*</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <x:si>
     <x:t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</x:t>
   </x:si>
   <x:si>
-    <x:t>CHANGES - Missing From FT magic_qq_appl.txt_07.01.73</x:t>
+    <x:t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-14-2020\*</x:t>
   </x:si>
   <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</x:t>
   </x:si>
   <x:si>
+    <x:t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</x:t>
   </x:si>
   <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</x:t>
-  </x:si>
-  <x:si>
     <x:t>Apr-28 Change Monitoring Monthly Review</x:t>
   </x:si>
   <x:si>
@@ -143,25 +137,37 @@
     <x:t xml:space="preserve">Open each email and ensure the details within </x:t>
   </x:si>
   <x:si>
+    <x:t>(e.g. each change is captured within the monthly tracker (findings tab).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selection 1 (Date)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Changes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic_kq_023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic_qq_appl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic_kl02</x:t>
+  </x:si>
+  <x:si>
     <x:t>Selection 2 (Date)</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Changes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic_kq_023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic_qq_appl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic_kl02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testps9023</x:t>
+    <x:t>magic9023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic9843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3 Review Sign Off ________________</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">4. From the Findings Tracker tab, haphazardly select five changes that occurred (and have a </x:t>
@@ -185,19 +191,22 @@
     <x:t>\\Remediation_or_Justification Evidence</x:t>
   </x:si>
   <x:si>
-    <x:t>1/9/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000192847</x:t>
+    <x:t>1/14/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000291924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Appropiately Mapped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/13/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000123095</x:t>
   </x:si>
   <x:si>
     <x:t>Appropiately Mapped</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/13/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000123095</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4 Review Sign off ___________</x:t>
@@ -609,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{F65823BB-0BF1-46F8-B811-B5DBF4D27ABF}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{118B3442-43D4-49B1-841D-637E35808B55}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B6"/>
+  <x:dimension ref="A1:B4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B1" sqref="B1 B1:B1"/>
@@ -649,19 +658,6 @@
       <x:c r="A4" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -673,11 +669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{98D3D9FF-CAB2-4C45-95D2-36E06D6988BC}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{526544E1-BEBD-4A2A-8BC6-32D0D1E76525}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet2">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H56"/>
+  <x:dimension ref="A1:H60"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -690,276 +686,284 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A1" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A2" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A3" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A4" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A5" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A6" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A8" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A10" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A11" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A12" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A13" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A14" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A15" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A16" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A18" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A20" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A21" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A22" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A23" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="C25" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E25" s="4">
-        <x:v>43839</x:v>
+        <x:v>43843</x:v>
       </x:c>
       <x:c r="F25" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H25" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="C26" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E26" s="4">
-        <x:v>43843</x:v>
+        <x:v>43844</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A28" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A33" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A34" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A35" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="B39" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B37" s="3" t="s">
+      <x:c r="C39" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C37" s="3" t="s">
+      <x:c r="D39" s="4">
+        <x:v>43843</x:v>
+      </x:c>
+      <x:c r="E39" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D37" s="4">
-        <x:v>43843</x:v>
-      </x:c>
-      <x:c r="E37" s="3" t="s">
+      <x:c r="G39" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H39" s="3" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G37" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="H38" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="H39" s="3" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="H40" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="H41" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="B42" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C42" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D42" s="4">
+        <x:v>43844</x:v>
+      </x:c>
+      <x:c r="E42" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G42" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H42" s="3" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A43" s="3" t="s">
+      <x:c r="H43" s="3" t="s">
         <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A44" s="3" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A45" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A47" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A48" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A49" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A50" s="3" t="s">
+    <x:row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B53" s="3" t="s">
+      <x:c r="A53" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="B57" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D57" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E57" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F57" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="B58" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D53" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E53" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F53" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B54" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D54" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E54" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F54" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A56" s="3" t="s">
+      <x:c r="D58" s="3" t="s">
         <x:v>54</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:8"/>
-    <x:row r="58" spans="1:8">
-      <x:c r="A58" s="3" t="s">
+      <x:c r="E58" s="3" t="s">
         <x:v>55</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:8">
-      <x:c r="A59" s="3" t="s">
+      <x:c r="F58" s="3" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:8">
+    <x:row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A60" s="3" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:8">
-      <x:c r="A61" s="3" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="61" spans="1:8"/>
     <x:row r="62" spans="1:8">
       <x:c r="A62" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -972,49 +976,69 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
+    <x:row r="65" spans="1:8">
+      <x:c r="A65" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:8">
+      <x:c r="A66" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
     <x:row r="67" spans="1:8">
-      <x:c r="A67" s="3" t="s"/>
-      <x:c r="B67" s="3" t="s"/>
-      <x:c r="C67" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D67" s="3" t="s">
+      <x:c r="A67" s="3" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="E67" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F67" s="3" t="s">
-        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
       <x:c r="A68" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B68" s="3" t="s"/>
-      <x:c r="C68" s="3" t="n">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:8">
+      <x:c r="A71" s="3" t="s"/>
+      <x:c r="B71" s="3" t="s"/>
+      <x:c r="C71" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D71" s="3" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E71" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F71" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:8">
+      <x:c r="A72" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B72" s="3" t="s"/>
+      <x:c r="C72" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D68" s="3" t="n">
+      <x:c r="D72" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E68" s="3" t="n">
+      <x:c r="E72" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F68" s="3" t="n">
+      <x:c r="F72" s="3" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:8">
-      <x:c r="A69" s="3" t="s"/>
-    </x:row>
-    <x:row r="70" spans="1:8">
-      <x:c r="A70" s="3" t="s"/>
-    </x:row>
-    <x:row r="71" spans="1:8">
-      <x:c r="A71" s="3" t="s">
-        <x:v>65</x:v>
+    <x:row r="73" spans="1:8">
+      <x:c r="A73" s="3" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:8">
+      <x:c r="A74" s="3" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:8">
+      <x:c r="A75" s="3" t="s">
+        <x:v>68</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1027,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D5CCABC9-F86D-4B3B-A40B-05FEEC44A6F3}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{EA1E6E29-B7B1-4B6D-B5F5-D0147F799F19}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet3">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -5,17 +5,18 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D92BA-3FD2-47C4-A0C5-02A9293DD28A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2EAD5C-48FE-4E1B-AA07-CBAE92E7B0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="1" xr2:uid="{D39F2BE3-4DC8-4697-9EA5-A60E7019C6F6}"/>
+    <x:workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="0" activeTab="1" xr2:uid="{059AD380-688B-4FD3-B79B-167F2342754E}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Data" sheetId="3" r:id="rId1"/>
     <x:sheet name="REPORT" sheetId="2" r:id="rId2"/>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <x:sheet name="INPUT" sheetId="7" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -36,27 +37,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
-  <x:si>
-    <x:t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-13-2020\*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\01-14-2020\*</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <x:si>
+    <x:t>C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\1-09-2020\*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\FOLDER\Mainfolder\Daily_Change_Monitoring\1Jan2020\1-13-2020\*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - Missing From FT magic_qq_appl.txt_07.01.73</x:t>
   </x:si>
   <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73</x:t>
   </x:si>
   <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic9023.txt_07.01.73</x:t>
+    <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</x:t>
   </x:si>
   <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73</x:t>
   </x:si>
   <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic9843.txt_07.01.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73</x:t>
+    <x:t>CHANGES - SOX Audit Report for testps01.txt_07.01.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for testps0324.txt_07.01.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for testps9023.txt_07.01.73</x:t>
   </x:si>
   <x:si>
     <x:t>Apr-28 Change Monitoring Monthly Review</x:t>
@@ -149,24 +156,27 @@
     <x:t>Total Changes</x:t>
   </x:si>
   <x:si>
+    <x:t>magic_qq_appl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testps01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testps0324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testps9023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selection 2 (Date)</x:t>
+  </x:si>
+  <x:si>
     <x:t>magic_kq_023</x:t>
   </x:si>
   <x:si>
-    <x:t>magic_qq_appl</x:t>
-  </x:si>
-  <x:si>
     <x:t>magic_kl02</x:t>
   </x:si>
   <x:si>
-    <x:t>Selection 2 (Date)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic9023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic9843</x:t>
-  </x:si>
-  <x:si>
     <x:t>Step 3 Review Sign Off ________________</x:t>
   </x:si>
   <x:si>
@@ -191,24 +201,24 @@
     <x:t>\\Remediation_or_Justification Evidence</x:t>
   </x:si>
   <x:si>
-    <x:t>1/14/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000291924</x:t>
+    <x:t>1/13/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000123095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Appropiately Mapped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/9/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000192847</x:t>
   </x:si>
   <x:si>
     <x:t>Not Appropiately Mapped</x:t>
   </x:si>
   <x:si>
-    <x:t>1/13/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000123095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Appropiately Mapped</x:t>
-  </x:si>
-  <x:si>
     <x:t>Step 4 Review Sign off ___________</x:t>
   </x:si>
   <x:si>
@@ -243,6 +253,39 @@
   </x:si>
   <x:si>
     <x:t>Step 5 Review Sign off ___________</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Change Monitoring Monthly Review 5.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>validation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No Changes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Changes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unrelated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accepted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -618,19 +661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{118B3442-43D4-49B1-841D-637E35808B55}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4A6DDA5A-6CB2-4C7D-B1E6-AFE14C7A4A80}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B1" sqref="B1 B1:B1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -638,7 +681,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A2" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -646,7 +689,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -654,9 +697,22 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A4" s="3" t="s">
         <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A6" s="3" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -669,376 +725,386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{526544E1-BEBD-4A2A-8BC6-32D0D1E76525}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{6A0831D3-7B1D-497F-8861-303C38401867}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet2">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H60"/>
+  <x:dimension ref="A1:H62"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <x:cols>
     <x:col min="1" max="3" width="9.140625" style="3" customWidth="1"/>
-    <x:col min="4" max="4" width="9.554688" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="14.554688" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="9.15625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="14.050781" style="3" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A1" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A3" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A4" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A6" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A8" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A10" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A11" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A12" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A13" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A14" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A15" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A16" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A18" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A20" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A21" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A22" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A23" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="C25" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E25" s="4">
+        <x:v>43839</x:v>
+      </x:c>
+      <x:c r="F25" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H25" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="C26" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E26" s="4">
         <x:v>43843</x:v>
       </x:c>
-      <x:c r="F25" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H25" s="3" t="n">
+      <x:c r="F26" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H26" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="C26" s="3" t="s">
+    <x:row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A28" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A33" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A34" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A35" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A36" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="B39" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C39" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D39" s="4">
+        <x:v>43839</x:v>
+      </x:c>
+      <x:c r="E39" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G39" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H39" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="H40" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="H41" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="H42" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="B43" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C43" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D43" s="4">
+        <x:v>43843</x:v>
+      </x:c>
+      <x:c r="E43" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G43" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H43" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="H44" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="H45" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A47" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A49" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A50" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A51" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A53" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A54" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A55" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A56" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="B59" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E26" s="4">
-        <x:v>43844</x:v>
-      </x:c>
-      <x:c r="F26" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H26" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A28" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A33" s="3" t="s">
+      <x:c r="D59" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E59" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F59" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="B60" s="3" t="s">
         <x:v>30</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A34" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A35" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A36" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B39" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C39" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D39" s="4">
-        <x:v>43843</x:v>
-      </x:c>
-      <x:c r="E39" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G39" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H39" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="H40" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="H41" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B42" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C42" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D42" s="4">
-        <x:v>43844</x:v>
-      </x:c>
-      <x:c r="E42" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G42" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H42" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="H43" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A45" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A47" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A48" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A49" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A51" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A52" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A53" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A54" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B57" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D57" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E57" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F57" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="B58" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D58" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E58" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F58" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A60" s="3" t="s">
+      <x:c r="D60" s="3" t="s">
         <x:v>57</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:8"/>
-    <x:row r="62" spans="1:8">
+      <x:c r="E60" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F60" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A62" s="3" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:8">
-      <x:c r="A63" s="3" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:8"/>
     <x:row r="64" spans="1:8">
       <x:c r="A64" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
       <x:c r="A65" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
       <x:c r="A66" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
       <x:c r="A67" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
       <x:c r="A68" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:8">
-      <x:c r="A71" s="3" t="s"/>
-      <x:c r="B71" s="3" t="s"/>
-      <x:c r="C71" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D71" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:8">
+      <x:c r="A69" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E71" s="3" t="s">
+    </x:row>
+    <x:row r="70" spans="1:8">
+      <x:c r="A70" s="3" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="F71" s="3" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:8">
-      <x:c r="A72" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B72" s="3" t="s"/>
-      <x:c r="C72" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D72" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E72" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F72" s="3" t="n">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
       <x:c r="A73" s="3" t="s"/>
+      <x:c r="B73" s="3" t="s"/>
+      <x:c r="C73" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D73" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E73" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F73" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
-      <x:c r="A74" s="3" t="s"/>
+      <x:c r="A74" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B74" s="3" t="s"/>
+      <x:c r="C74" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D74" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E74" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F74" s="3" t="n">
+        <x:v>15</x:v>
+      </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
-      <x:c r="A75" s="3" t="s">
-        <x:v>68</x:v>
+      <x:c r="A75" s="3" t="s"/>
+    </x:row>
+    <x:row r="76" spans="1:8">
+      <x:c r="A76" s="3" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:8">
+      <x:c r="A77" s="3" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1051,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{EA1E6E29-B7B1-4B6D-B5F5-D0147F799F19}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{F467D2C9-A109-46AF-A7E1-D67461A1190D}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet3">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1059,7 +1125,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,4 +1133,101 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr codeName="Sheet4">
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="C5:K9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetData>
+    <x:row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="C5" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="C7" s="3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="K7" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="C8" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I8" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K8" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="E9" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I9" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K9" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F38300F-1DC3-4101-B9FA-9028F4126447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C5E679-DAB9-4574-9169-D3693D587603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="7155" windowWidth="25050" windowHeight="13560" xr2:uid="{059AD380-688B-4FD3-B79B-167F2342754E}"/>
+    <workbookView xWindow="10650" yWindow="7155" windowWidth="25050" windowHeight="13560" activeTab="1" xr2:uid="{059AD380-688B-4FD3-B79B-167F2342754E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>1/13/2020</t>
   </si>
@@ -575,7 +575,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -667,9 +667,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0831D3-7B1D-497F-8861-303C38401867}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -942,6 +942,101 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43839</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43844</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43854</v>
+      </c>
+      <c r="F54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
     </row>

--- a/outputExcel.xlsx
+++ b/outputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DAFCC7-E9F7-437E-BE7E-29B833C730FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D07517-D4E9-417E-A230-70DEE26E5E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3696" yWindow="1680" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="1" xr2:uid="{A18E0EF4-95BE-4166-94C3-4C4CE0C48B51}"/>
+    <x:workbookView xWindow="3696" yWindow="1680" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="1" xr2:uid="{766D1C72-B5E0-4E07-BC76-ADCB864FBF35}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -279,40 +279,40 @@
     <x:t>\\Remediation_or_Justification Evidence</x:t>
   </x:si>
   <x:si>
+    <x:t>1/9/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000192847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Appropiately Mapped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/24/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000382957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Appropiately Mapped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/22/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000295932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/13/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHR0000123095</x:t>
+  </x:si>
+  <x:si>
     <x:t>1/14/2020</x:t>
   </x:si>
   <x:si>
     <x:t>CHR0000291924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Appropiately Mapped</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/24/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000381057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Appropiately Mapped</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/9/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000192847</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/13/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000123095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/22/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHR0000295932</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4 Review Sign off ___________</x:t>
@@ -757,7 +757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{CAAB0CA7-A9CF-4159-AAD0-8EFBDE3AAA8A}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{9076E86E-9214-49B2-9FBB-337A7A0FBB0B}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{3FE85A86-0FFF-4F27-AE11-82B565C280FE}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D590B26F-D913-48F7-B66C-492030623B85}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet2">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{E1628E2A-1913-4022-AC7B-64B7709F739B}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{33336EE4-0075-46CB-A96B-3B90C667A140}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr codeName="Sheet3">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1486,7 +1486,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
         <x:v>114</x:v>
@@ -1495,18 +1495,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J8" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="E9" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
         <x:v>114</x:v>
@@ -1515,18 +1515,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J9" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K9" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="E10" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
         <x:v>114</x:v>
@@ -1535,18 +1535,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J10" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="E11" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
         <x:v>114</x:v>
@@ -1555,13 +1555,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J11" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K11" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11" x14ac:dyDescent="0.3">
